--- a/Electronics/Part Lists/DualElectrometerPartsList.xlsx
+++ b/Electronics/Part Lists/DualElectrometerPartsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan-SFF\Box\1_BIOMEMS MEMBERS\KOCH Dylan\0_KOCH\OpenDMS\Part Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\Electronics\Part Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341149BA-3332-4A99-8545-4C8C1752C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA4982F-B807-4CB2-8A03-B4649A7BD1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="22410" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rev 3.0" sheetId="3" r:id="rId1"/>
@@ -846,7 +846,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,19 +903,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1405,34 +1396,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65819A9-5077-6A44-A8DC-34BEAD90B9F9}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" ht="30.9">
+      <c r="A1" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -1491,7 +1482,7 @@
       <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
       <c r="I3" s="8">
@@ -1524,7 +1515,7 @@
       <c r="G4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" t="s">
         <v>86</v>
       </c>
       <c r="I4" s="6">
@@ -1557,7 +1548,7 @@
       <c r="G5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I5" s="6">
@@ -1568,7 +1559,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="31.5">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="31.75">
       <c r="A6" s="20">
         <v>11</v>
       </c>
@@ -1590,7 +1581,7 @@
       <c r="G6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="17" t="s">
         <v>156</v>
       </c>
       <c r="I6" s="18">
@@ -1623,7 +1614,7 @@
       <c r="G7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" t="s">
         <v>158</v>
       </c>
       <c r="I7" s="18">
@@ -1656,7 +1647,7 @@
       <c r="G8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" t="s">
         <v>132</v>
       </c>
       <c r="I8" s="6">
@@ -1689,7 +1680,7 @@
       <c r="G9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" t="s">
         <v>117</v>
       </c>
       <c r="I9" s="6">
@@ -1722,7 +1713,7 @@
       <c r="G10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="I10" s="13">
@@ -1755,7 +1746,7 @@
       <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" t="s">
         <v>85</v>
       </c>
       <c r="I11" s="6">
@@ -1788,7 +1779,7 @@
       <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="8">
@@ -1821,7 +1812,7 @@
       <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="22" t="s">
         <v>133</v>
       </c>
       <c r="I13" s="16">
@@ -1854,7 +1845,7 @@
       <c r="G14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" t="s">
         <v>116</v>
       </c>
       <c r="I14" s="14">
@@ -1887,7 +1878,7 @@
       <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" t="s">
         <v>103</v>
       </c>
       <c r="I15" s="8">
@@ -1920,7 +1911,7 @@
       <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" t="s">
         <v>111</v>
       </c>
       <c r="I16" s="6">
@@ -1953,7 +1944,7 @@
       <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" t="s">
         <v>110</v>
       </c>
       <c r="I17" s="8">
@@ -1986,7 +1977,7 @@
       <c r="G18" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" t="s">
         <v>119</v>
       </c>
       <c r="I18" s="8">
@@ -2019,7 +2010,7 @@
       <c r="G19" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" t="s">
         <v>121</v>
       </c>
       <c r="I19" s="8">
@@ -2049,7 +2040,7 @@
       <c r="G20" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="19" t="s">
         <v>165</v>
       </c>
       <c r="I20" s="8">
@@ -2079,7 +2070,7 @@
       <c r="G21" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" t="s">
         <v>108</v>
       </c>
       <c r="I21" s="8">
@@ -2109,7 +2100,7 @@
       <c r="G22" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="9" t="s">
         <v>114</v>
       </c>
       <c r="I22" s="8">
@@ -2142,7 +2133,7 @@
       <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" t="s">
         <v>112</v>
       </c>
       <c r="I23" s="6">
@@ -2175,7 +2166,7 @@
       <c r="G24" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="9" t="s">
         <v>135</v>
       </c>
       <c r="I24" s="8">
@@ -2208,7 +2199,7 @@
       <c r="G25" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" t="s">
         <v>98</v>
       </c>
       <c r="I25" s="8">
@@ -2241,7 +2232,7 @@
       <c r="G26" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="8">
@@ -2274,7 +2265,7 @@
       <c r="G27" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="13">
@@ -2306,7 +2297,7 @@
       <c r="G28" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="9" t="s">
         <v>142</v>
       </c>
       <c r="I28" s="8">
@@ -2339,7 +2330,7 @@
       <c r="G29" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="9" t="s">
         <v>123</v>
       </c>
       <c r="I29" s="8">
@@ -2372,7 +2363,7 @@
       <c r="G30" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" t="s">
         <v>92</v>
       </c>
       <c r="I30" s="8">
